--- a/medicine/Soins infirmiers et profession infirmière/Rosette_Poletti/Rosette_Poletti.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Rosette_Poletti/Rosette_Poletti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosette Poletti, née en 1938 à Payerne, est une infirmière en soins généraux et en psychiatrie suisse. Elle est l'auteur de nombreux ouvrages d'orientation pratique sur le développement personnel, le deuil, l'acceptation de ce qui est et la sérénité.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosette Poletti naît en 1938 à Payerne, dans le canton de Vaud. Elle est l'aînée d'une famille de trois enfants (un frère cadet et une sœur benjamine[1]) et grandit dans la localité de Vers-chez-Perrin, rattachée à la commune de Payerne[2],[3]. Ses parents sont protestants pratiquants[3],[4] et humanistes. Son père est de sensibilité de gauche, sa mère de droite[5]. Son arrière grand-père paternel est italien[6].  
-Jeune fille au pair à Londres, elle découvre la prière active et la musique orthodoxe[6]. Grande voyageuse, elle passe dix ans aux États-Unis et séjourne en Inde[7]. 
-Elle habite à Yverdon[8], en colocation avec une famille réfugiée tibétaine depuis 2014[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosette Poletti naît en 1938 à Payerne, dans le canton de Vaud. Elle est l'aînée d'une famille de trois enfants (un frère cadet et une sœur benjamine) et grandit dans la localité de Vers-chez-Perrin, rattachée à la commune de Payerne,. Ses parents sont protestants pratiquants, et humanistes. Son père est de sensibilité de gauche, sa mère de droite. Son arrière grand-père paternel est italien.  
+Jeune fille au pair à Londres, elle découvre la prière active et la musique orthodoxe. Grande voyageuse, elle passe dix ans aux États-Unis et séjourne en Inde. 
+Elle habite à Yverdon, en colocation avec une famille réfugiée tibétaine depuis 2014. 
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Formation et parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après s'être d'abord destinée à une carrière d'institutrice et avoir échoué aux examens oraux de l'École normale en 1954, elle se lance des études d'infirmière à Genève qu'elle achève en 1961[2]. Elle obtient une « Licence (Master) en Sciences de l’éducation » à l'Université de Genève, puis un diplôme de théologie de la même université. Elle s'occupe alors de patients en fin de vie en milieu hospitalier. En 1963, elle part travailler comme infirmière missionnaire dans les bidonvilles de Marseille, puis en Algérie[2],[5]. Après avoir contracté la fièvre typhoïde, elle rentre en Suisse[5].  
-En 1965, elle part aux États-Unis. Elle y reste sept ans[2] et y obtient, tout en travaillant à temps partiel comme infirmière, un master en sciences infirmières, puis un doctorat en sciences de l'éducation à l'université Columbia de New York et enseigne à l'Université Pace de New York où elle effectue des travaux en recherche clinique infirmière, notamment au sujet du deuil, de l'autonomie individuelle et de l'accompagnement de fin de vie. Durant son séjour aux États-Unis, elle collabore avec Elisabeth Kübler-Ross[2].  
-De retour en Suisse, elle prend la tête de l'École du Bon secours à Genève pour une durée de huit ans[5], puis devient directrice à l’École Supérieure d'Enseignement Infirmier de la Croix-Rouge à Lausanne en 1984, puis codirectrice en 1988[2]. Par la suite, elle exerce la psychothérapie, anime la rubrique du courrier des lecteurs du journal le Matin, est responsable d'un centre de formation à l'accompagnement des personnes en difficulté et travaille comme experte auprès de l'Organisation mondiale de la santé.
-Elle participe à des sessions à l'Institut de recherche et de formation à l’accompagnement des personnes en fin de vie et des personnes en deuil à Yverdon[9].
-Elle tient une chronique dans Le Matin Dimanche depuis 1987[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s'être d'abord destinée à une carrière d'institutrice et avoir échoué aux examens oraux de l'École normale en 1954, elle se lance des études d'infirmière à Genève qu'elle achève en 1961. Elle obtient une « Licence (Master) en Sciences de l’éducation » à l'Université de Genève, puis un diplôme de théologie de la même université. Elle s'occupe alors de patients en fin de vie en milieu hospitalier. En 1963, elle part travailler comme infirmière missionnaire dans les bidonvilles de Marseille, puis en Algérie,. Après avoir contracté la fièvre typhoïde, elle rentre en Suisse.  
+En 1965, elle part aux États-Unis. Elle y reste sept ans et y obtient, tout en travaillant à temps partiel comme infirmière, un master en sciences infirmières, puis un doctorat en sciences de l'éducation à l'université Columbia de New York et enseigne à l'Université Pace de New York où elle effectue des travaux en recherche clinique infirmière, notamment au sujet du deuil, de l'autonomie individuelle et de l'accompagnement de fin de vie. Durant son séjour aux États-Unis, elle collabore avec Elisabeth Kübler-Ross.  
+De retour en Suisse, elle prend la tête de l'École du Bon secours à Genève pour une durée de huit ans, puis devient directrice à l’École Supérieure d'Enseignement Infirmier de la Croix-Rouge à Lausanne en 1984, puis codirectrice en 1988. Par la suite, elle exerce la psychothérapie, anime la rubrique du courrier des lecteurs du journal le Matin, est responsable d'un centre de formation à l'accompagnement des personnes en difficulté et travaille comme experte auprès de l'Organisation mondiale de la santé.
+Elle participe à des sessions à l'Institut de recherche et de formation à l’accompagnement des personnes en fin de vie et des personnes en deuil à Yverdon.
+Elle tient une chronique dans Le Matin Dimanche depuis 1987.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Principales thématiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle préconise le lâcher-prise, selon elle c'est s'ouvrir au présent plutôt que craindre ou programmer l'avenir[11].
-En 1998, elle fonde l'association Vivre son deuil Suisse, qui organise des conférences, séminaires et des cafés-deuil[7],[12].
-En 2017, elle fait partie du comité de l'initiative populaire fédérale « Pour des soins infirmiers forts »[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle préconise le lâcher-prise, selon elle c'est s'ouvrir au présent plutôt que craindre ou programmer l'avenir.
+En 1998, elle fonde l'association Vivre son deuil Suisse, qui organise des conférences, séminaires et des cafés-deuil,.
+En 2017, elle fait partie du comité de l'initiative populaire fédérale « Pour des soins infirmiers forts ».
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauf indication contraire, les ouvrages sont tous coécrits avec Barbara Dobbs :
 Les Soins infirmiers : théories et concepts, Montrouge, Bayard, 1978, 180 p. (ISBN 2-227-13014-8)
